--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haya7\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haya7\Desktop\2D\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECC0C649-A346-4F9B-9910-535E608E80D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA584099-04CF-45D1-85CC-267C0EBC90B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{083F802B-7486-4B11-9F68-C727463D9373}"/>
   </bookViews>
@@ -53,19 +53,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>計１８時間</t>
+    <t>制作</t>
+    <rPh sb="0" eb="2">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計１5時間</t>
     <rPh sb="0" eb="1">
       <t>ケイ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>制作</t>
-    <rPh sb="0" eb="2">
-      <t>セイサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -136,13 +136,13 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,7 +462,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -471,23 +471,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B2" s="1">
@@ -502,10 +502,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
